--- a/szerv_meridianok.xlsx
+++ b/szerv_meridianok.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ciklusok_osszesitett_sablon" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="114">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -175,7 +175,7 @@
     <t xml:space="preserve">Lep</t>
   </si>
   <si>
-    <t xml:space="preserve">Emésztés-felszívas-kiválasztás</t>
+    <t xml:space="preserve">emésztés-felszívas-kiválasztás</t>
   </si>
   <si>
     <t xml:space="preserve">vérraktár</t>
@@ -304,6 +304,48 @@
     <t xml:space="preserve">Szivburok</t>
   </si>
   <si>
+    <t xml:space="preserve">a koszorúérrel kapcsolatban álló keringési működések szabályozása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tápanyag-beviteli funkciók szabályozása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">séta, levegőzés, lélegzet-gyakorlatok</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">az oxigén-ellátás megnövelése, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">energiapályáink lelassulnak, felkészülünk az éjszakai pihenőre, érzékeink kifinomulnak</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">barátságos természet, humorosság, szociális érzékenység, újítókedv, ihlet, teljes agyi kapacitás kihasználása, méltányosság, döntési erő, bőkezűség, támasznyújtás, szándék és cselekedet összhangja, pártatlanság, bizalomteljesség, cselekedeti tisztaság, ösztönök uralása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fizikai erőfeszítés és sport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pszichés megbetegedések, szemproblémák, keringési zavarok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mellkasi szorító fájdalom, nyugtalanság, izomgörcsök, könyökfájdalom, kéz- és lábgörcsök, végtagzsibbadás, elmezavar, idegesség</t>
+  </si>
+  <si>
     <t xml:space="preserve">21:00 - 23:00</t>
   </si>
   <si>
@@ -404,7 +446,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -442,6 +484,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -485,16 +533,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -503,11 +547,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -518,6 +562,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -539,23 +591,23 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -635,545 +687,728 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BL24"/>
+  <dimension ref="A1:BL34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
+      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="29.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="41.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="39.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="17.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="75.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="41.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="42.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="5" width="27.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="44.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="5" width="26.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="29.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="41.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="39.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="17.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="75.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="41.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="42.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="41.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="63.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="4" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="6"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="6"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5"/>
+      <c r="BH1" s="5"/>
+      <c r="BI1" s="5"/>
+      <c r="BJ1" s="5"/>
+      <c r="BK1" s="5"/>
+      <c r="BL1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F12" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H12" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11" t="s">
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L12" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H15" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="n">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H18" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="10" t="s">
+      <c r="I18" s="12"/>
+      <c r="J18" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B20" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="9"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="16" t="n">
         <v>11</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B25" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="n">
+      <c r="D25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="18"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="18"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="18"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="18"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="18"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="18"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="11"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="11"/>
+      <c r="B32" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="12"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="87">
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:C9"/>
@@ -1182,43 +1417,85 @@
     <mergeCell ref="F6:F9"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
     <mergeCell ref="J6:J9"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="L6:L9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="I20:I24"/>
+    <mergeCell ref="J20:J24"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="D25:D31"/>
+    <mergeCell ref="E25:E31"/>
+    <mergeCell ref="F25:F31"/>
+    <mergeCell ref="G25:G31"/>
+    <mergeCell ref="H25:H31"/>
+    <mergeCell ref="I25:I31"/>
+    <mergeCell ref="J25:J31"/>
+    <mergeCell ref="K25:K31"/>
+    <mergeCell ref="L25:L31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1237,7 +1514,7 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
@@ -1245,214 +1522,214 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="3.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="13.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="16" width="40.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="16" width="28.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="16" width="40.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="16" width="25.97"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="16" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="13.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="40.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="28.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="40.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="25.97"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="4" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="5" customFormat="true" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>81</v>
+      <c r="B1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>85</v>
+      <c r="B2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>89</v>
+      <c r="B3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="B4" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1460,8 +1737,8 @@
       <c r="A19" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="2" t="s">
-        <v>105</v>
+      <c r="B27" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/szerv_meridianok.xlsx
+++ b/szerv_meridianok.xlsx
@@ -9,10 +9,10 @@
   </bookViews>
   <sheets>
     <sheet name="ciklusok_osszesitett_sablon" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="(!) gyogyteafogyasztas_rendje" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="funkciok" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="okok_jelek" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="okok_tunetek" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="gyogyteafogyasztas_rendje" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="tapanyag_matrix" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="illoolaj_matrix" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="meridian_pontok_" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="id" vbProcedure="false">ciklusok_osszesitett_sablon!$A:$A</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="213">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">23:00 - 01:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Epeholyag</t>
+    <t xml:space="preserve">Epehólyag</t>
   </si>
   <si>
     <t xml:space="preserve">megfelelő anyagcsere biztosítása</t>
@@ -80,13 +80,13 @@
     <t xml:space="preserve">alvás</t>
   </si>
   <si>
-    <t xml:space="preserve">ebrenlet</t>
+    <t xml:space="preserve">ébrenlét</t>
   </si>
   <si>
     <t xml:space="preserve">01:00 - 03:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Maj</t>
+    <t xml:space="preserve">Máj</t>
   </si>
   <si>
     <t xml:space="preserve">vér átszűrése</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">03:00 - 05:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Tudo</t>
+    <t xml:space="preserve">Tüdő</t>
   </si>
   <si>
     <t xml:space="preserve">gázcsere</t>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">05:00 - 07:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Vastagbel</t>
+    <t xml:space="preserve">Vastagbél</t>
   </si>
   <si>
     <t xml:space="preserve">víz es tápanyagok visszaszívása táplálékból</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">méreganyagok, salakanyagok elkülönítése</t>
   </si>
   <si>
-    <t xml:space="preserve">mézes citromos langyos vizet inni; séta; könnyed torna; szekletürítés</t>
+    <t xml:space="preserve">mézes citromos langyos vizet inni; séta; könnyed torna; székletürítés</t>
   </si>
   <si>
     <t xml:space="preserve">07:00 - 09:00</t>
@@ -134,66 +134,58 @@
     <t xml:space="preserve">tápanyagok felszívása</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">vitaminokban, ásvanyianyagokban gazdag bőséges reggeli + tea </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(!)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">maximalis tapanyagfelszivodas; nem hizlal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ures gyomor + kave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">felgyulemlett gyomorsav; gyomorfekely; gyomor nyombel hurut; epeholyag gyulladas; epeko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">szajszarazsag; repedezett ajak</t>
+    <t xml:space="preserve">vitaminokban, ásvanyianyagokban gazdag bőséges reggeli + tea (kávé helyett), melegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maximális tápanyagfelszívódás; nem hízlal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">üres gyomor + kávé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">felgyülemlett gyomorsav; gyomorfekély; gyomor nyombél hurut; epehólyag gyulladás; epekő</t>
+  </si>
+  <si>
+    <t xml:space="preserve">szájszárazság; repedezett ajak</t>
   </si>
   <si>
     <t xml:space="preserve">09:00 - 11:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Lep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emésztés-felszívas-kiválasztás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vérraktár</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 pohárnyi meleg tea lassú kortyolgatása ebben az időszakban</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jo emesztes-kivalasztas; jo verminoseg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ajkak pirosas szine</t>
+    <t xml:space="preserve">Lép, hasnyálmirigy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emésztés-felszívás, kiválasztás; fizikai védelem biztosítása a fertőzésekkel szemben antitestek termelésével</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lebontja és eltávolítja az elhasználódott vörösvértesteket; a bennük lévő vasat újrahasznosítja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vérraktár + hozzájárul az epe termeléséhez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 pohárnyi meleg tea lassú kortyolgatása ebben az időszakban, édesség, gyümölcsök, méz fogyasztása; étkezések a megfelelő időben; vérképző ételek fogyasztása; munka és önjutalmazás egyensúlya; odafigyelés a saját igényeimre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jó emésztés-kiválasztás; jó verminőség, magas teljesítőképesség, nyugodt idegrendszer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajak pirosas színe; jó koncentráló- és emlékezőképesség; tanulékonyság; gyors gondolkodás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alkoholfogyasztás ebben az időszakban; zsíros, mesterségesen feldolgozott ételek; szabálytalan étkezés; emberi szükségleteim elnyomása; önjutalmazás hiánya; saját igényeim háttérbe szorítása és másokénak előnyben részesítése hosszútávon; érzelmek elfojtása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nem termelődik elég anitest ami semlegesíti vagy elhárítja a mérgező baktériumokat; gyengül az emésztés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sápadt / lilás színű ajak; puffadt / megkeményedett has; általános fáradékonyság; krónikus hasmenés; csalódottság hangoztatása; rossz koncentráló / döntési képesség; aggodalmaskodás; túldramatizálás</t>
   </si>
   <si>
     <t xml:space="preserve">11:00 - 13:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Sziv</t>
+    <t xml:space="preserve">Szív</t>
   </si>
   <si>
     <t xml:space="preserve">friss vér pumpálása az érrendszerbe</t>
@@ -205,22 +197,25 @@
     <t xml:space="preserve">szellemi energia biztosítása</t>
   </si>
   <si>
-    <t xml:space="preserve">meleg ebéd elfogyasztása 13:00 előtt; fél óra pihenés ebben az időszakban</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sziv tamogatasa; hosszutavon csokkenti a szivbetegsegek kockazatat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sziv kezdodo betegsege</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deli faradekonysag</t>
+    <t xml:space="preserve">sportolás ilyenkor a leghatékonyabb ebéd előtt; meleg ebéd elfogyasztása 13:00 előtt; nyugalom, fél óra pihenés ebéd után; kis mozgás pihi után is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gyomorsav, majd epetermelődés erősödése; gyengébb szellemi teljesítőképesség; a szervezet az emésztésre összpontosít; megfelelő vérkeringés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">szív egészsége, erőssége</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evés kihagyása; 1 óránál hosszabb pihenés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">éjjeli álmatlanság</t>
   </si>
   <si>
     <t xml:space="preserve">13:00 - 15:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Vekonybel</t>
+    <t xml:space="preserve">Vékonybél</t>
   </si>
   <si>
     <t xml:space="preserve">felszívódás</t>
@@ -232,28 +227,28 @@
     <t xml:space="preserve">joghurt; kefír; jótékony bélbaktériumokat tartalmazó keszítmény fogyasztása</t>
   </si>
   <si>
-    <t xml:space="preserve">ekkor hasznosul leginkabb az elfogyasztott taplalek</t>
+    <t xml:space="preserve">ekkor hasznosul leginkább az elfogyasztott táplálék</t>
   </si>
   <si>
     <t xml:space="preserve">15:00 - 17:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Hugyholyag</t>
+    <t xml:space="preserve">Húgyhólyag</t>
   </si>
   <si>
     <t xml:space="preserve">vizelet, nedvek raktározása</t>
   </si>
   <si>
-    <t xml:space="preserve">sok víz, gyógytea, leves fogyasztása ebben az időszakban</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maximalis tapanyagfelhasznalas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vizeletvisszatartas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hugyholyag rugalmassaganak csokkenese; ferfiaknal prosztata</t>
+    <t xml:space="preserve">sok víz / gyógytea / leves fogyasztása ebben az időszakban; sportolás; tanulás; munka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maximális tápanyagfelhasználás, magas teljesítőképesség</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vizeletvisszatartás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">húgyhólyag rugalmasságának csökkenése; férfiaknál prosztata</t>
   </si>
   <si>
     <t xml:space="preserve">17:00 - 19:00</t>
@@ -265,43 +260,31 @@
     <t xml:space="preserve">tárolja a szexuális energiát és a szervek esszenciális energiáját</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ilyenkor csökken a vérnyomás, lassul a szívmüködés, nem árt kicsit pihenni, és érdemes elfogyasztani egy könnyű vacsorát is (kevés cukor, só, zsír). Ilyenkor nem szabad nehéz fizikai munkát végezni. Gyógyteák </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(!)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> : mezei zsurló / nyírfalevél / tejoltó galaj / apróbojtorjános teakeverék / csalánleveles teakeverék / aranyvessző / kisviragú füzike</t>
-    </r>
+    <t xml:space="preserve">felelős a szervezet anyagcseréje közben keletkezett bomlástermékek eltávolításáért</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vérnyomást szabályozó, vörösvértest termelést beindító, és a kalcium anyagcserét szabályzó anyagok termelése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pihenés, könnyű vacsora (kevés cukor, só, zsír); gyógyteázás : mezei zsurló / nyírfalevél / tejoltó galaj / apróbojtorjános teakeverék / csalánleveles teakeverék / aranyvessző / kisviragú füzike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csökken a vérnyomás, lassul a szívműködés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nehéz fizikai munka ebben az időszakban; túl sós, zsíros vacsora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vesére nehezedő terhek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bizonyos idő elteltével magas vérnyomás, szív- és érrendszeri betegség</t>
   </si>
   <si>
     <t xml:space="preserve">19:00 - 21:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Szivburok</t>
+    <t xml:space="preserve">Szívburok</t>
   </si>
   <si>
     <t xml:space="preserve">a koszorúérrel kapcsolatban álló keringési működések szabályozása</t>
@@ -310,46 +293,58 @@
     <t xml:space="preserve">tápanyag-beviteli funkciók szabályozása</t>
   </si>
   <si>
+    <t xml:space="preserve">a szív esszenciáját, a vér és energia forrását védi</t>
+  </si>
+  <si>
     <t xml:space="preserve">séta, levegőzés, lélegzet-gyakorlatok</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">az oxigén-ellátás megnövelése, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">energiapályáink lelassulnak, felkészülünk az éjszakai pihenőre, érzékeink kifinomulnak</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">barátságos természet, humorosság, szociális érzékenység, újítókedv, ihlet, teljes agyi kapacitás kihasználása, méltányosság, döntési erő, bőkezűség, támasznyújtás, szándék és cselekedet összhangja, pártatlanság, bizalomteljesség, cselekedeti tisztaság, ösztönök uralása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fizikai erőfeszítés és sport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pszichés megbetegedések, szemproblémák, keringési zavarok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mellkasi szorító fájdalom, nyugtalanság, izomgörcsök, könyökfájdalom, kéz- és lábgörcsök, végtagzsibbadás, elmezavar, idegesség</t>
+    <t xml:space="preserve">az oxigén-ellátás megnövelése; energiapályáink lelassulnak; felkészülünk az éjszakai pihenőre; érzékeink kifinomulnak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barátságos természet; humorosság; szociális érzékenység; újítókedv; ihlet; teljes agyi kapacitás kihasználása; méltányosság; döntési erő; bőkezűség; támasznyújtás; szándék és cselekedet összhangja; pártatlanság; bizalomteljesség; cselekedeti tisztaság; ösztönök uralása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fizikai erőfeszítés; sport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pszichés megbetegedések; szemproblémák; keringési zavarok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mellkasi szorító fájdalom; nyugtalanság; izomgörcsök; könyökfájdalom; kéz- és lábgörcsök; végtagzsibbadás; elmezavar; idegesség</t>
   </si>
   <si>
     <t xml:space="preserve">21:00 - 23:00</t>
   </si>
   <si>
-    <t xml:space="preserve">"Harmas melegito": sziv-tudo; lep-gyomor; vese-hugyholyag</t>
+    <t xml:space="preserve">"Hármas melegítő": szív-tüdő; lép-gyomor; vese-húgyhólyag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a légzés, az evés és az ivás során a szervezetünkbe jutó, a tüdő és a gyomor által felvett energiákat a test többi részébe irányítja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">energiák kiegyensúlyozása – átjárása van az összes meridiánhoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vízháztartás harmonizálása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kerüljük a szélsőséges érzelmeket, az idegességet; relaxáló zene hallgatása; nyugalom; szexuális együttlét</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pihentető alvás, egész test teljes feltöltődése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">másnapi energikusság, életöröm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testileg, szellemileg aktív tevékenység végzése; veszekedés, vita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csökkent teljesítőképesség</t>
+  </si>
+  <si>
+    <t xml:space="preserve">másnapi levertség, depresszió</t>
   </si>
   <si>
     <t xml:space="preserve">idoszak</t>
@@ -364,7 +359,7 @@
     <t xml:space="preserve">alkalmazas</t>
   </si>
   <si>
-    <t xml:space="preserve">mennyiseg</t>
+    <t xml:space="preserve">adagolas</t>
   </si>
   <si>
     <t xml:space="preserve">Január 02 – 14</t>
@@ -379,6 +374,9 @@
     <t xml:space="preserve">3 naponként egy csésze</t>
   </si>
   <si>
+    <t xml:space="preserve">https://illuzio.cafeblog.hu/2015/05/24/a-bukki-fuvesember-eves-egeszsegvedo-naptara/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Január 15</t>
   </si>
   <si>
@@ -436,17 +434,249 @@
     <t xml:space="preserve">gyermekláncfűlevél- vagy gyökér</t>
   </si>
   <si>
-    <t xml:space="preserve">https://illuzio.cafeblog.hu/2015/05/24/a-bukki-fuvesember-eves-egeszsegvedo-naptara/</t>
+    <t xml:space="preserve">Március 01 – 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bélkiürítésre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bodzahajtás / gyújtoványfű / kutyabengekéreg / szenna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">egy csésze este</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Márcis 03 – 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">immunerősítésre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 naponként egy csésze reggel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Március 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">szerv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">egeszseget tamogatja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sovány húsok, szárnyasok, halak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">főtt, párolt, grillezett sovány húsok, szárnyasok, bárány, tőkehal, pisztráng, csuka, hekk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friss gyümölcsök és zöldségek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fekete retek, tőzegáfonya, erdei gyümölcsök, szőlő, alma, eper, citrom, narancs, avokádó, uborka, cékla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teljes kiőrlésű gabonafélék</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barna rizs, durumtészta, zabkorpából készült péksütemények, pelyhek, korpák</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alacsony zsírtartalmú tejtermékek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sovány tej, zsírszegény sajtok, túró, joghurt, kefir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zabkása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brokkoli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kávé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">víz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zöld tea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mandula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spenót</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polifenol-tartalmú ételek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">áfonya, olívabogyó, szilva, étcsokoládé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polifenol-tartalmú fűszerek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oregánó, zsálya, rozmaring, fahéj, curry, kömény</t>
+  </si>
+  <si>
+    <t xml:space="preserve">narancs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hagyma, fokhagyma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alma, gránátalma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paprika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gyömbér</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sárgabarack-nektár</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paradicsom- és sárgarépalé keverék</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lótuszgyökér</t>
+  </si>
+  <si>
+    <t xml:space="preserve">búzafű</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rozmaring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oregánó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vízitorma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lenmag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aloe vera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">borsmenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">édeskömény</t>
+  </si>
+  <si>
+    <t xml:space="preserve">szilfa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tyúkhúr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alfalfa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dió</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ürüm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">szegfűszeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tökmagolaj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sütőtök</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sárgarépa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csicseriborsó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">borsó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pasztinák</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vöröshagyma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">póréhagyma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fahéj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">szerecsendió</t>
+  </si>
+  <si>
+    <t xml:space="preserve">szezonális hozzávalójú receptek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q-10 koenzim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magnézium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">szelén</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3-vitamin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jód</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fokhagyma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-vitamin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B-vitamin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kakaó, 70%-os vagy afeletti étcsoki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cayenne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">galagonya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pont neve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szb-6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -477,18 +707,38 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
+      <color rgb="FF0000B0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -533,7 +783,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -587,10 +837,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -598,16 +848,48 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -623,15 +905,15 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFC00000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF0000EE"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF0000B0"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
@@ -687,29 +969,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BL34"/>
+  <dimension ref="A1:BL39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="bottomLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="29.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="41.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="39.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="17.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="42.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="75.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="41.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="45.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="42.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="27.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="41.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="58.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="63.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="4" width="8.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="13" style="4" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -802,7 +1084,7 @@
       <c r="BK1" s="5"/>
       <c r="BL1" s="5"/>
     </row>
-    <row r="2" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -832,7 +1114,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -860,7 +1142,7 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -888,77 +1170,79 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+      <c r="H5" s="12"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="I7" s="13"/>
+      <c r="J7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L7" s="12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9"/>
@@ -969,6 +1253,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
       <c r="H8" s="11"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="11"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
@@ -982,90 +1267,81 @@
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
       <c r="H9" s="11"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="11"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
+      <c r="F11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="G11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="H11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="B12" s="13" t="s">
+      <c r="I11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="J11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="K11" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="L11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>53</v>
-      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
-      <c r="K12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>55</v>
-      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="12"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -1077,9 +1353,9 @@
       <c r="L13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -1090,91 +1366,87 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" customFormat="false" ht="15.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="H16" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="I16" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="J16" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="8" t="s">
+      <c r="K16" s="12"/>
+      <c r="L16" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="n">
-        <v>9</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>64</v>
-      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>66</v>
-      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>68</v>
-      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
       <c r="L18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -1182,320 +1454,500 @@
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="11"/>
+      <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>70</v>
+        <v>8</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+        <v>63</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="10"/>
       <c r="G20" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="12"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="12"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="9"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="12"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="G23" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="n">
+      <c r="A25" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L25" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="18"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="18"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="18"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="18"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="18"/>
+      <c r="B30" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="18"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="n">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="12"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="12"/>
+      <c r="B37" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="I20:I24"/>
-    <mergeCell ref="J20:J24"/>
-    <mergeCell ref="K20:K24"/>
-    <mergeCell ref="L20:L24"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="D25:D31"/>
-    <mergeCell ref="E25:E31"/>
-    <mergeCell ref="F25:F31"/>
-    <mergeCell ref="G25:G31"/>
-    <mergeCell ref="H25:H31"/>
-    <mergeCell ref="I25:I31"/>
-    <mergeCell ref="J25:J31"/>
-    <mergeCell ref="K25:K31"/>
-    <mergeCell ref="L25:L31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
+  <mergeCells count="108">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="H11:H15"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="J11:J15"/>
+    <mergeCell ref="K11:K15"/>
+    <mergeCell ref="L11:L15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="I25:I29"/>
+    <mergeCell ref="J25:J29"/>
+    <mergeCell ref="K25:K29"/>
+    <mergeCell ref="L25:L29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="C30:C36"/>
+    <mergeCell ref="D30:D36"/>
+    <mergeCell ref="E30:E36"/>
+    <mergeCell ref="F30:F36"/>
+    <mergeCell ref="G30:G36"/>
+    <mergeCell ref="H30:H36"/>
+    <mergeCell ref="I30:I36"/>
+    <mergeCell ref="J30:J36"/>
+    <mergeCell ref="K30:K36"/>
+    <mergeCell ref="L30:L36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="L37:L39"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1512,12 +1964,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1526,9 +1978,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="13.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="40.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="28.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="40.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="40.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="25.97"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="4" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="4" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1536,36 +1989,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>93</v>
+        <v>114</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1573,16 +2029,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1590,19 +2046,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1612,7 +2068,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="4" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -1622,16 +2078,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1639,16 +2095,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1674,16 +2130,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1691,37 +2147,77 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="B14" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="B15" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -1733,16 +2229,133 @@
         <v>16</v>
       </c>
     </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="E4:E5"/>
@@ -1751,9 +2364,13 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B27" r:id="rId1" display="https://illuzio.cafeblog.hu/2015/05/24/a-bukki-fuvesember-eves-egeszsegvedo-naptara/"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://illuzio.cafeblog.hu/2015/05/24/a-bukki-fuvesember-eves-egeszsegvedo-naptara/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1770,20 +2387,1578 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AMJ70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B72" activeCellId="0" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="2.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="15.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="28.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="19" width="76.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="19" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="22" customFormat="true" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0"/>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
+      <c r="M29" s="0"/>
+      <c r="N29" s="0"/>
+      <c r="O29" s="0"/>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="0"/>
+      <c r="S29" s="0"/>
+      <c r="T29" s="0"/>
+      <c r="U29" s="0"/>
+      <c r="V29" s="0"/>
+      <c r="W29" s="0"/>
+      <c r="X29" s="0"/>
+      <c r="Y29" s="0"/>
+      <c r="Z29" s="0"/>
+      <c r="AA29" s="0"/>
+      <c r="AB29" s="0"/>
+      <c r="AC29" s="0"/>
+      <c r="AD29" s="0"/>
+      <c r="AE29" s="0"/>
+      <c r="AF29" s="0"/>
+      <c r="AG29" s="0"/>
+      <c r="AH29" s="0"/>
+      <c r="AI29" s="0"/>
+      <c r="AJ29" s="0"/>
+      <c r="AK29" s="0"/>
+      <c r="AL29" s="0"/>
+      <c r="AM29" s="0"/>
+      <c r="AN29" s="0"/>
+      <c r="AO29" s="0"/>
+      <c r="AP29" s="0"/>
+      <c r="AQ29" s="0"/>
+      <c r="AR29" s="0"/>
+      <c r="AS29" s="0"/>
+      <c r="AT29" s="0"/>
+      <c r="AU29" s="0"/>
+      <c r="AV29" s="0"/>
+      <c r="AW29" s="0"/>
+      <c r="AX29" s="0"/>
+      <c r="AY29" s="0"/>
+      <c r="AZ29" s="0"/>
+      <c r="BA29" s="0"/>
+      <c r="BB29" s="0"/>
+      <c r="BC29" s="0"/>
+      <c r="BD29" s="0"/>
+      <c r="BE29" s="0"/>
+      <c r="BF29" s="0"/>
+      <c r="BG29" s="0"/>
+      <c r="BH29" s="0"/>
+      <c r="BI29" s="0"/>
+      <c r="BJ29" s="0"/>
+      <c r="BK29" s="0"/>
+      <c r="BL29" s="0"/>
+      <c r="BM29" s="0"/>
+      <c r="BN29" s="0"/>
+      <c r="BO29" s="0"/>
+      <c r="BP29" s="0"/>
+      <c r="BQ29" s="0"/>
+      <c r="BR29" s="0"/>
+      <c r="BS29" s="0"/>
+      <c r="BT29" s="0"/>
+      <c r="BU29" s="0"/>
+      <c r="BV29" s="0"/>
+      <c r="BW29" s="0"/>
+      <c r="BX29" s="0"/>
+      <c r="BY29" s="0"/>
+      <c r="BZ29" s="0"/>
+      <c r="CA29" s="0"/>
+      <c r="CB29" s="0"/>
+      <c r="CC29" s="0"/>
+      <c r="CD29" s="0"/>
+      <c r="CE29" s="0"/>
+      <c r="CF29" s="0"/>
+      <c r="CG29" s="0"/>
+      <c r="CH29" s="0"/>
+      <c r="CI29" s="0"/>
+      <c r="CJ29" s="0"/>
+      <c r="CK29" s="0"/>
+      <c r="CL29" s="0"/>
+      <c r="CM29" s="0"/>
+      <c r="CN29" s="0"/>
+      <c r="CO29" s="0"/>
+      <c r="CP29" s="0"/>
+      <c r="CQ29" s="0"/>
+      <c r="CR29" s="0"/>
+      <c r="CS29" s="0"/>
+      <c r="CT29" s="0"/>
+      <c r="CU29" s="0"/>
+      <c r="CV29" s="0"/>
+      <c r="CW29" s="0"/>
+      <c r="CX29" s="0"/>
+      <c r="CY29" s="0"/>
+      <c r="CZ29" s="0"/>
+      <c r="DA29" s="0"/>
+      <c r="DB29" s="0"/>
+      <c r="DC29" s="0"/>
+      <c r="DD29" s="0"/>
+      <c r="DE29" s="0"/>
+      <c r="DF29" s="0"/>
+      <c r="DG29" s="0"/>
+      <c r="DH29" s="0"/>
+      <c r="DI29" s="0"/>
+      <c r="DJ29" s="0"/>
+      <c r="DK29" s="0"/>
+      <c r="DL29" s="0"/>
+      <c r="DM29" s="0"/>
+      <c r="DN29" s="0"/>
+      <c r="DO29" s="0"/>
+      <c r="DP29" s="0"/>
+      <c r="DQ29" s="0"/>
+      <c r="DR29" s="0"/>
+      <c r="DS29" s="0"/>
+      <c r="DT29" s="0"/>
+      <c r="DU29" s="0"/>
+      <c r="DV29" s="0"/>
+      <c r="DW29" s="0"/>
+      <c r="DX29" s="0"/>
+      <c r="DY29" s="0"/>
+      <c r="DZ29" s="0"/>
+      <c r="EA29" s="0"/>
+      <c r="EB29" s="0"/>
+      <c r="EC29" s="0"/>
+      <c r="ED29" s="0"/>
+      <c r="EE29" s="0"/>
+      <c r="EF29" s="0"/>
+      <c r="EG29" s="0"/>
+      <c r="EH29" s="0"/>
+      <c r="EI29" s="0"/>
+      <c r="EJ29" s="0"/>
+      <c r="EK29" s="0"/>
+      <c r="EL29" s="0"/>
+      <c r="EM29" s="0"/>
+      <c r="EN29" s="0"/>
+      <c r="EO29" s="0"/>
+      <c r="EP29" s="0"/>
+      <c r="EQ29" s="0"/>
+      <c r="ER29" s="0"/>
+      <c r="ES29" s="0"/>
+      <c r="ET29" s="0"/>
+      <c r="EU29" s="0"/>
+      <c r="EV29" s="0"/>
+      <c r="EW29" s="0"/>
+      <c r="EX29" s="0"/>
+      <c r="EY29" s="0"/>
+      <c r="EZ29" s="0"/>
+      <c r="FA29" s="0"/>
+      <c r="FB29" s="0"/>
+      <c r="FC29" s="0"/>
+      <c r="FD29" s="0"/>
+      <c r="FE29" s="0"/>
+      <c r="FF29" s="0"/>
+      <c r="FG29" s="0"/>
+      <c r="FH29" s="0"/>
+      <c r="FI29" s="0"/>
+      <c r="FJ29" s="0"/>
+      <c r="FK29" s="0"/>
+      <c r="FL29" s="0"/>
+      <c r="FM29" s="0"/>
+      <c r="FN29" s="0"/>
+      <c r="FO29" s="0"/>
+      <c r="FP29" s="0"/>
+      <c r="FQ29" s="0"/>
+      <c r="FR29" s="0"/>
+      <c r="FS29" s="0"/>
+      <c r="FT29" s="0"/>
+      <c r="FU29" s="0"/>
+      <c r="FV29" s="0"/>
+      <c r="FW29" s="0"/>
+      <c r="FX29" s="0"/>
+      <c r="FY29" s="0"/>
+      <c r="FZ29" s="0"/>
+      <c r="GA29" s="0"/>
+      <c r="GB29" s="0"/>
+      <c r="GC29" s="0"/>
+      <c r="GD29" s="0"/>
+      <c r="GE29" s="0"/>
+      <c r="GF29" s="0"/>
+      <c r="GG29" s="0"/>
+      <c r="GH29" s="0"/>
+      <c r="GI29" s="0"/>
+      <c r="GJ29" s="0"/>
+      <c r="GK29" s="0"/>
+      <c r="GL29" s="0"/>
+      <c r="GM29" s="0"/>
+      <c r="GN29" s="0"/>
+      <c r="GO29" s="0"/>
+      <c r="GP29" s="0"/>
+      <c r="GQ29" s="0"/>
+      <c r="GR29" s="0"/>
+      <c r="GS29" s="0"/>
+      <c r="GT29" s="0"/>
+      <c r="GU29" s="0"/>
+      <c r="GV29" s="0"/>
+      <c r="GW29" s="0"/>
+      <c r="GX29" s="0"/>
+      <c r="GY29" s="0"/>
+      <c r="GZ29" s="0"/>
+      <c r="HA29" s="0"/>
+      <c r="HB29" s="0"/>
+      <c r="HC29" s="0"/>
+      <c r="HD29" s="0"/>
+      <c r="HE29" s="0"/>
+      <c r="HF29" s="0"/>
+      <c r="HG29" s="0"/>
+      <c r="HH29" s="0"/>
+      <c r="HI29" s="0"/>
+      <c r="HJ29" s="0"/>
+      <c r="HK29" s="0"/>
+      <c r="HL29" s="0"/>
+      <c r="HM29" s="0"/>
+      <c r="HN29" s="0"/>
+      <c r="HO29" s="0"/>
+      <c r="HP29" s="0"/>
+      <c r="HQ29" s="0"/>
+      <c r="HR29" s="0"/>
+      <c r="HS29" s="0"/>
+      <c r="HT29" s="0"/>
+      <c r="HU29" s="0"/>
+      <c r="HV29" s="0"/>
+      <c r="HW29" s="0"/>
+      <c r="HX29" s="0"/>
+      <c r="HY29" s="0"/>
+      <c r="HZ29" s="0"/>
+      <c r="IA29" s="0"/>
+      <c r="IB29" s="0"/>
+      <c r="IC29" s="0"/>
+      <c r="ID29" s="0"/>
+      <c r="IE29" s="0"/>
+      <c r="IF29" s="0"/>
+      <c r="IG29" s="0"/>
+      <c r="IH29" s="0"/>
+      <c r="II29" s="0"/>
+      <c r="IJ29" s="0"/>
+      <c r="IK29" s="0"/>
+      <c r="IL29" s="0"/>
+      <c r="IM29" s="0"/>
+      <c r="IN29" s="0"/>
+      <c r="IO29" s="0"/>
+      <c r="IP29" s="0"/>
+      <c r="IQ29" s="0"/>
+      <c r="IR29" s="0"/>
+      <c r="IS29" s="0"/>
+      <c r="IT29" s="0"/>
+      <c r="IU29" s="0"/>
+      <c r="IV29" s="0"/>
+      <c r="IW29" s="0"/>
+      <c r="IX29" s="0"/>
+      <c r="IY29" s="0"/>
+      <c r="IZ29" s="0"/>
+      <c r="JA29" s="0"/>
+      <c r="JB29" s="0"/>
+      <c r="JC29" s="0"/>
+      <c r="JD29" s="0"/>
+      <c r="JE29" s="0"/>
+      <c r="JF29" s="0"/>
+      <c r="JG29" s="0"/>
+      <c r="JH29" s="0"/>
+      <c r="JI29" s="0"/>
+      <c r="JJ29" s="0"/>
+      <c r="JK29" s="0"/>
+      <c r="JL29" s="0"/>
+      <c r="JM29" s="0"/>
+      <c r="JN29" s="0"/>
+      <c r="JO29" s="0"/>
+      <c r="JP29" s="0"/>
+      <c r="JQ29" s="0"/>
+      <c r="JR29" s="0"/>
+      <c r="JS29" s="0"/>
+      <c r="JT29" s="0"/>
+      <c r="JU29" s="0"/>
+      <c r="JV29" s="0"/>
+      <c r="JW29" s="0"/>
+      <c r="JX29" s="0"/>
+      <c r="JY29" s="0"/>
+      <c r="JZ29" s="0"/>
+      <c r="KA29" s="0"/>
+      <c r="KB29" s="0"/>
+      <c r="KC29" s="0"/>
+      <c r="KD29" s="0"/>
+      <c r="KE29" s="0"/>
+      <c r="KF29" s="0"/>
+      <c r="KG29" s="0"/>
+      <c r="KH29" s="0"/>
+      <c r="KI29" s="0"/>
+      <c r="KJ29" s="0"/>
+      <c r="KK29" s="0"/>
+      <c r="KL29" s="0"/>
+      <c r="KM29" s="0"/>
+      <c r="KN29" s="0"/>
+      <c r="KO29" s="0"/>
+      <c r="KP29" s="0"/>
+      <c r="KQ29" s="0"/>
+      <c r="KR29" s="0"/>
+      <c r="KS29" s="0"/>
+      <c r="KT29" s="0"/>
+      <c r="KU29" s="0"/>
+      <c r="KV29" s="0"/>
+      <c r="KW29" s="0"/>
+      <c r="KX29" s="0"/>
+      <c r="KY29" s="0"/>
+      <c r="KZ29" s="0"/>
+      <c r="LA29" s="0"/>
+      <c r="LB29" s="0"/>
+      <c r="LC29" s="0"/>
+      <c r="LD29" s="0"/>
+      <c r="LE29" s="0"/>
+      <c r="LF29" s="0"/>
+      <c r="LG29" s="0"/>
+      <c r="LH29" s="0"/>
+      <c r="LI29" s="0"/>
+      <c r="LJ29" s="0"/>
+      <c r="LK29" s="0"/>
+      <c r="LL29" s="0"/>
+      <c r="LM29" s="0"/>
+      <c r="LN29" s="0"/>
+      <c r="LO29" s="0"/>
+      <c r="LP29" s="0"/>
+      <c r="LQ29" s="0"/>
+      <c r="LR29" s="0"/>
+      <c r="LS29" s="0"/>
+      <c r="LT29" s="0"/>
+      <c r="LU29" s="0"/>
+      <c r="LV29" s="0"/>
+      <c r="LW29" s="0"/>
+      <c r="LX29" s="0"/>
+      <c r="LY29" s="0"/>
+      <c r="LZ29" s="0"/>
+      <c r="MA29" s="0"/>
+      <c r="MB29" s="0"/>
+      <c r="MC29" s="0"/>
+      <c r="MD29" s="0"/>
+      <c r="ME29" s="0"/>
+      <c r="MF29" s="0"/>
+      <c r="MG29" s="0"/>
+      <c r="MH29" s="0"/>
+      <c r="MI29" s="0"/>
+      <c r="MJ29" s="0"/>
+      <c r="MK29" s="0"/>
+      <c r="ML29" s="0"/>
+      <c r="MM29" s="0"/>
+      <c r="MN29" s="0"/>
+      <c r="MO29" s="0"/>
+      <c r="MP29" s="0"/>
+      <c r="MQ29" s="0"/>
+      <c r="MR29" s="0"/>
+      <c r="MS29" s="0"/>
+      <c r="MT29" s="0"/>
+      <c r="MU29" s="0"/>
+      <c r="MV29" s="0"/>
+      <c r="MW29" s="0"/>
+      <c r="MX29" s="0"/>
+      <c r="MY29" s="0"/>
+      <c r="MZ29" s="0"/>
+      <c r="NA29" s="0"/>
+      <c r="NB29" s="0"/>
+      <c r="NC29" s="0"/>
+      <c r="ND29" s="0"/>
+      <c r="NE29" s="0"/>
+      <c r="NF29" s="0"/>
+      <c r="NG29" s="0"/>
+      <c r="NH29" s="0"/>
+      <c r="NI29" s="0"/>
+      <c r="NJ29" s="0"/>
+      <c r="NK29" s="0"/>
+      <c r="NL29" s="0"/>
+      <c r="NM29" s="0"/>
+      <c r="NN29" s="0"/>
+      <c r="NO29" s="0"/>
+      <c r="NP29" s="0"/>
+      <c r="NQ29" s="0"/>
+      <c r="NR29" s="0"/>
+      <c r="NS29" s="0"/>
+      <c r="NT29" s="0"/>
+      <c r="NU29" s="0"/>
+      <c r="NV29" s="0"/>
+      <c r="NW29" s="0"/>
+      <c r="NX29" s="0"/>
+      <c r="NY29" s="0"/>
+      <c r="NZ29" s="0"/>
+      <c r="OA29" s="0"/>
+      <c r="OB29" s="0"/>
+      <c r="OC29" s="0"/>
+      <c r="OD29" s="0"/>
+      <c r="OE29" s="0"/>
+      <c r="OF29" s="0"/>
+      <c r="OG29" s="0"/>
+      <c r="OH29" s="0"/>
+      <c r="OI29" s="0"/>
+      <c r="OJ29" s="0"/>
+      <c r="OK29" s="0"/>
+      <c r="OL29" s="0"/>
+      <c r="OM29" s="0"/>
+      <c r="ON29" s="0"/>
+      <c r="OO29" s="0"/>
+      <c r="OP29" s="0"/>
+      <c r="OQ29" s="0"/>
+      <c r="OR29" s="0"/>
+      <c r="OS29" s="0"/>
+      <c r="OT29" s="0"/>
+      <c r="OU29" s="0"/>
+      <c r="OV29" s="0"/>
+      <c r="OW29" s="0"/>
+      <c r="OX29" s="0"/>
+      <c r="OY29" s="0"/>
+      <c r="OZ29" s="0"/>
+      <c r="PA29" s="0"/>
+      <c r="PB29" s="0"/>
+      <c r="PC29" s="0"/>
+      <c r="PD29" s="0"/>
+      <c r="PE29" s="0"/>
+      <c r="PF29" s="0"/>
+      <c r="PG29" s="0"/>
+      <c r="PH29" s="0"/>
+      <c r="PI29" s="0"/>
+      <c r="PJ29" s="0"/>
+      <c r="PK29" s="0"/>
+      <c r="PL29" s="0"/>
+      <c r="PM29" s="0"/>
+      <c r="PN29" s="0"/>
+      <c r="PO29" s="0"/>
+      <c r="PP29" s="0"/>
+      <c r="PQ29" s="0"/>
+      <c r="PR29" s="0"/>
+      <c r="PS29" s="0"/>
+      <c r="PT29" s="0"/>
+      <c r="PU29" s="0"/>
+      <c r="PV29" s="0"/>
+      <c r="PW29" s="0"/>
+      <c r="PX29" s="0"/>
+      <c r="PY29" s="0"/>
+      <c r="PZ29" s="0"/>
+      <c r="QA29" s="0"/>
+      <c r="QB29" s="0"/>
+      <c r="QC29" s="0"/>
+      <c r="QD29" s="0"/>
+      <c r="QE29" s="0"/>
+      <c r="QF29" s="0"/>
+      <c r="QG29" s="0"/>
+      <c r="QH29" s="0"/>
+      <c r="QI29" s="0"/>
+      <c r="QJ29" s="0"/>
+      <c r="QK29" s="0"/>
+      <c r="QL29" s="0"/>
+      <c r="QM29" s="0"/>
+      <c r="QN29" s="0"/>
+      <c r="QO29" s="0"/>
+      <c r="QP29" s="0"/>
+      <c r="QQ29" s="0"/>
+      <c r="QR29" s="0"/>
+      <c r="QS29" s="0"/>
+      <c r="QT29" s="0"/>
+      <c r="QU29" s="0"/>
+      <c r="QV29" s="0"/>
+      <c r="QW29" s="0"/>
+      <c r="QX29" s="0"/>
+      <c r="QY29" s="0"/>
+      <c r="QZ29" s="0"/>
+      <c r="RA29" s="0"/>
+      <c r="RB29" s="0"/>
+      <c r="RC29" s="0"/>
+      <c r="RD29" s="0"/>
+      <c r="RE29" s="0"/>
+      <c r="RF29" s="0"/>
+      <c r="RG29" s="0"/>
+      <c r="RH29" s="0"/>
+      <c r="RI29" s="0"/>
+      <c r="RJ29" s="0"/>
+      <c r="RK29" s="0"/>
+      <c r="RL29" s="0"/>
+      <c r="RM29" s="0"/>
+      <c r="RN29" s="0"/>
+      <c r="RO29" s="0"/>
+      <c r="RP29" s="0"/>
+      <c r="RQ29" s="0"/>
+      <c r="RR29" s="0"/>
+      <c r="RS29" s="0"/>
+      <c r="RT29" s="0"/>
+      <c r="RU29" s="0"/>
+      <c r="RV29" s="0"/>
+      <c r="RW29" s="0"/>
+      <c r="RX29" s="0"/>
+      <c r="RY29" s="0"/>
+      <c r="RZ29" s="0"/>
+      <c r="SA29" s="0"/>
+      <c r="SB29" s="0"/>
+      <c r="SC29" s="0"/>
+      <c r="SD29" s="0"/>
+      <c r="SE29" s="0"/>
+      <c r="SF29" s="0"/>
+      <c r="SG29" s="0"/>
+      <c r="SH29" s="0"/>
+      <c r="SI29" s="0"/>
+      <c r="SJ29" s="0"/>
+      <c r="SK29" s="0"/>
+      <c r="SL29" s="0"/>
+      <c r="SM29" s="0"/>
+      <c r="SN29" s="0"/>
+      <c r="SO29" s="0"/>
+      <c r="SP29" s="0"/>
+      <c r="SQ29" s="0"/>
+      <c r="SR29" s="0"/>
+      <c r="SS29" s="0"/>
+      <c r="ST29" s="0"/>
+      <c r="SU29" s="0"/>
+      <c r="SV29" s="0"/>
+      <c r="SW29" s="0"/>
+      <c r="SX29" s="0"/>
+      <c r="SY29" s="0"/>
+      <c r="SZ29" s="0"/>
+      <c r="TA29" s="0"/>
+      <c r="TB29" s="0"/>
+      <c r="TC29" s="0"/>
+      <c r="TD29" s="0"/>
+      <c r="TE29" s="0"/>
+      <c r="TF29" s="0"/>
+      <c r="TG29" s="0"/>
+      <c r="TH29" s="0"/>
+      <c r="TI29" s="0"/>
+      <c r="TJ29" s="0"/>
+      <c r="TK29" s="0"/>
+      <c r="TL29" s="0"/>
+      <c r="TM29" s="0"/>
+      <c r="TN29" s="0"/>
+      <c r="TO29" s="0"/>
+      <c r="TP29" s="0"/>
+      <c r="TQ29" s="0"/>
+      <c r="TR29" s="0"/>
+      <c r="TS29" s="0"/>
+      <c r="TT29" s="0"/>
+      <c r="TU29" s="0"/>
+      <c r="TV29" s="0"/>
+      <c r="TW29" s="0"/>
+      <c r="TX29" s="0"/>
+      <c r="TY29" s="0"/>
+      <c r="TZ29" s="0"/>
+      <c r="UA29" s="0"/>
+      <c r="UB29" s="0"/>
+      <c r="UC29" s="0"/>
+      <c r="UD29" s="0"/>
+      <c r="UE29" s="0"/>
+      <c r="UF29" s="0"/>
+      <c r="UG29" s="0"/>
+      <c r="UH29" s="0"/>
+      <c r="UI29" s="0"/>
+      <c r="UJ29" s="0"/>
+      <c r="UK29" s="0"/>
+      <c r="UL29" s="0"/>
+      <c r="UM29" s="0"/>
+      <c r="UN29" s="0"/>
+      <c r="UO29" s="0"/>
+      <c r="UP29" s="0"/>
+      <c r="UQ29" s="0"/>
+      <c r="UR29" s="0"/>
+      <c r="US29" s="0"/>
+      <c r="UT29" s="0"/>
+      <c r="UU29" s="0"/>
+      <c r="UV29" s="0"/>
+      <c r="UW29" s="0"/>
+      <c r="UX29" s="0"/>
+      <c r="UY29" s="0"/>
+      <c r="UZ29" s="0"/>
+      <c r="VA29" s="0"/>
+      <c r="VB29" s="0"/>
+      <c r="VC29" s="0"/>
+      <c r="VD29" s="0"/>
+      <c r="VE29" s="0"/>
+      <c r="VF29" s="0"/>
+      <c r="VG29" s="0"/>
+      <c r="VH29" s="0"/>
+      <c r="VI29" s="0"/>
+      <c r="VJ29" s="0"/>
+      <c r="VK29" s="0"/>
+      <c r="VL29" s="0"/>
+      <c r="VM29" s="0"/>
+      <c r="VN29" s="0"/>
+      <c r="VO29" s="0"/>
+      <c r="VP29" s="0"/>
+      <c r="VQ29" s="0"/>
+      <c r="VR29" s="0"/>
+      <c r="VS29" s="0"/>
+      <c r="VT29" s="0"/>
+      <c r="VU29" s="0"/>
+      <c r="VV29" s="0"/>
+      <c r="VW29" s="0"/>
+      <c r="VX29" s="0"/>
+      <c r="VY29" s="0"/>
+      <c r="VZ29" s="0"/>
+      <c r="WA29" s="0"/>
+      <c r="WB29" s="0"/>
+      <c r="WC29" s="0"/>
+      <c r="WD29" s="0"/>
+      <c r="WE29" s="0"/>
+      <c r="WF29" s="0"/>
+      <c r="WG29" s="0"/>
+      <c r="WH29" s="0"/>
+      <c r="WI29" s="0"/>
+      <c r="WJ29" s="0"/>
+      <c r="WK29" s="0"/>
+      <c r="WL29" s="0"/>
+      <c r="WM29" s="0"/>
+      <c r="WN29" s="0"/>
+      <c r="WO29" s="0"/>
+      <c r="WP29" s="0"/>
+      <c r="WQ29" s="0"/>
+      <c r="WR29" s="0"/>
+      <c r="WS29" s="0"/>
+      <c r="WT29" s="0"/>
+      <c r="WU29" s="0"/>
+      <c r="WV29" s="0"/>
+      <c r="WW29" s="0"/>
+      <c r="WX29" s="0"/>
+      <c r="WY29" s="0"/>
+      <c r="WZ29" s="0"/>
+      <c r="XA29" s="0"/>
+      <c r="XB29" s="0"/>
+      <c r="XC29" s="0"/>
+      <c r="XD29" s="0"/>
+      <c r="XE29" s="0"/>
+      <c r="XF29" s="0"/>
+      <c r="XG29" s="0"/>
+      <c r="XH29" s="0"/>
+      <c r="XI29" s="0"/>
+      <c r="XJ29" s="0"/>
+      <c r="XK29" s="0"/>
+      <c r="XL29" s="0"/>
+      <c r="XM29" s="0"/>
+      <c r="XN29" s="0"/>
+      <c r="XO29" s="0"/>
+      <c r="XP29" s="0"/>
+      <c r="XQ29" s="0"/>
+      <c r="XR29" s="0"/>
+      <c r="XS29" s="0"/>
+      <c r="XT29" s="0"/>
+      <c r="XU29" s="0"/>
+      <c r="XV29" s="0"/>
+      <c r="XW29" s="0"/>
+      <c r="XX29" s="0"/>
+      <c r="XY29" s="0"/>
+      <c r="XZ29" s="0"/>
+      <c r="YA29" s="0"/>
+      <c r="YB29" s="0"/>
+      <c r="YC29" s="0"/>
+      <c r="YD29" s="0"/>
+      <c r="YE29" s="0"/>
+      <c r="YF29" s="0"/>
+      <c r="YG29" s="0"/>
+      <c r="YH29" s="0"/>
+      <c r="YI29" s="0"/>
+      <c r="YJ29" s="0"/>
+      <c r="YK29" s="0"/>
+      <c r="YL29" s="0"/>
+      <c r="YM29" s="0"/>
+      <c r="YN29" s="0"/>
+      <c r="YO29" s="0"/>
+      <c r="YP29" s="0"/>
+      <c r="YQ29" s="0"/>
+      <c r="YR29" s="0"/>
+      <c r="YS29" s="0"/>
+      <c r="YT29" s="0"/>
+      <c r="YU29" s="0"/>
+      <c r="YV29" s="0"/>
+      <c r="YW29" s="0"/>
+      <c r="YX29" s="0"/>
+      <c r="YY29" s="0"/>
+      <c r="YZ29" s="0"/>
+      <c r="ZA29" s="0"/>
+      <c r="ZB29" s="0"/>
+      <c r="ZC29" s="0"/>
+      <c r="ZD29" s="0"/>
+      <c r="ZE29" s="0"/>
+      <c r="ZF29" s="0"/>
+      <c r="ZG29" s="0"/>
+      <c r="ZH29" s="0"/>
+      <c r="ZI29" s="0"/>
+      <c r="ZJ29" s="0"/>
+      <c r="ZK29" s="0"/>
+      <c r="ZL29" s="0"/>
+      <c r="ZM29" s="0"/>
+      <c r="ZN29" s="0"/>
+      <c r="ZO29" s="0"/>
+      <c r="ZP29" s="0"/>
+      <c r="ZQ29" s="0"/>
+      <c r="ZR29" s="0"/>
+      <c r="ZS29" s="0"/>
+      <c r="ZT29" s="0"/>
+      <c r="ZU29" s="0"/>
+      <c r="ZV29" s="0"/>
+      <c r="ZW29" s="0"/>
+      <c r="ZX29" s="0"/>
+      <c r="ZY29" s="0"/>
+      <c r="ZZ29" s="0"/>
+      <c r="AAA29" s="0"/>
+      <c r="AAB29" s="0"/>
+      <c r="AAC29" s="0"/>
+      <c r="AAD29" s="0"/>
+      <c r="AAE29" s="0"/>
+      <c r="AAF29" s="0"/>
+      <c r="AAG29" s="0"/>
+      <c r="AAH29" s="0"/>
+      <c r="AAI29" s="0"/>
+      <c r="AAJ29" s="0"/>
+      <c r="AAK29" s="0"/>
+      <c r="AAL29" s="0"/>
+      <c r="AAM29" s="0"/>
+      <c r="AAN29" s="0"/>
+      <c r="AAO29" s="0"/>
+      <c r="AAP29" s="0"/>
+      <c r="AAQ29" s="0"/>
+      <c r="AAR29" s="0"/>
+      <c r="AAS29" s="0"/>
+      <c r="AAT29" s="0"/>
+      <c r="AAU29" s="0"/>
+      <c r="AAV29" s="0"/>
+      <c r="AAW29" s="0"/>
+      <c r="AAX29" s="0"/>
+      <c r="AAY29" s="0"/>
+      <c r="AAZ29" s="0"/>
+      <c r="ABA29" s="0"/>
+      <c r="ABB29" s="0"/>
+      <c r="ABC29" s="0"/>
+      <c r="ABD29" s="0"/>
+      <c r="ABE29" s="0"/>
+      <c r="ABF29" s="0"/>
+      <c r="ABG29" s="0"/>
+      <c r="ABH29" s="0"/>
+      <c r="ABI29" s="0"/>
+      <c r="ABJ29" s="0"/>
+      <c r="ABK29" s="0"/>
+      <c r="ABL29" s="0"/>
+      <c r="ABM29" s="0"/>
+      <c r="ABN29" s="0"/>
+      <c r="ABO29" s="0"/>
+      <c r="ABP29" s="0"/>
+      <c r="ABQ29" s="0"/>
+      <c r="ABR29" s="0"/>
+      <c r="ABS29" s="0"/>
+      <c r="ABT29" s="0"/>
+      <c r="ABU29" s="0"/>
+      <c r="ABV29" s="0"/>
+      <c r="ABW29" s="0"/>
+      <c r="ABX29" s="0"/>
+      <c r="ABY29" s="0"/>
+      <c r="ABZ29" s="0"/>
+      <c r="ACA29" s="0"/>
+      <c r="ACB29" s="0"/>
+      <c r="ACC29" s="0"/>
+      <c r="ACD29" s="0"/>
+      <c r="ACE29" s="0"/>
+      <c r="ACF29" s="0"/>
+      <c r="ACG29" s="0"/>
+      <c r="ACH29" s="0"/>
+      <c r="ACI29" s="0"/>
+      <c r="ACJ29" s="0"/>
+      <c r="ACK29" s="0"/>
+      <c r="ACL29" s="0"/>
+      <c r="ACM29" s="0"/>
+      <c r="ACN29" s="0"/>
+      <c r="ACO29" s="0"/>
+      <c r="ACP29" s="0"/>
+      <c r="ACQ29" s="0"/>
+      <c r="ACR29" s="0"/>
+      <c r="ACS29" s="0"/>
+      <c r="ACT29" s="0"/>
+      <c r="ACU29" s="0"/>
+      <c r="ACV29" s="0"/>
+      <c r="ACW29" s="0"/>
+      <c r="ACX29" s="0"/>
+      <c r="ACY29" s="0"/>
+      <c r="ACZ29" s="0"/>
+      <c r="ADA29" s="0"/>
+      <c r="ADB29" s="0"/>
+      <c r="ADC29" s="0"/>
+      <c r="ADD29" s="0"/>
+      <c r="ADE29" s="0"/>
+      <c r="ADF29" s="0"/>
+      <c r="ADG29" s="0"/>
+      <c r="ADH29" s="0"/>
+      <c r="ADI29" s="0"/>
+      <c r="ADJ29" s="0"/>
+      <c r="ADK29" s="0"/>
+      <c r="ADL29" s="0"/>
+      <c r="ADM29" s="0"/>
+      <c r="ADN29" s="0"/>
+      <c r="ADO29" s="0"/>
+      <c r="ADP29" s="0"/>
+      <c r="ADQ29" s="0"/>
+      <c r="ADR29" s="0"/>
+      <c r="ADS29" s="0"/>
+      <c r="ADT29" s="0"/>
+      <c r="ADU29" s="0"/>
+      <c r="ADV29" s="0"/>
+      <c r="ADW29" s="0"/>
+      <c r="ADX29" s="0"/>
+      <c r="ADY29" s="0"/>
+      <c r="ADZ29" s="0"/>
+      <c r="AEA29" s="0"/>
+      <c r="AEB29" s="0"/>
+      <c r="AEC29" s="0"/>
+      <c r="AED29" s="0"/>
+      <c r="AEE29" s="0"/>
+      <c r="AEF29" s="0"/>
+      <c r="AEG29" s="0"/>
+      <c r="AEH29" s="0"/>
+      <c r="AEI29" s="0"/>
+      <c r="AEJ29" s="0"/>
+      <c r="AEK29" s="0"/>
+      <c r="AEL29" s="0"/>
+      <c r="AEM29" s="0"/>
+      <c r="AEN29" s="0"/>
+      <c r="AEO29" s="0"/>
+      <c r="AEP29" s="0"/>
+      <c r="AEQ29" s="0"/>
+      <c r="AER29" s="0"/>
+      <c r="AES29" s="0"/>
+      <c r="AET29" s="0"/>
+      <c r="AEU29" s="0"/>
+      <c r="AEV29" s="0"/>
+      <c r="AEW29" s="0"/>
+      <c r="AEX29" s="0"/>
+      <c r="AEY29" s="0"/>
+      <c r="AEZ29" s="0"/>
+      <c r="AFA29" s="0"/>
+      <c r="AFB29" s="0"/>
+      <c r="AFC29" s="0"/>
+      <c r="AFD29" s="0"/>
+      <c r="AFE29" s="0"/>
+      <c r="AFF29" s="0"/>
+      <c r="AFG29" s="0"/>
+      <c r="AFH29" s="0"/>
+      <c r="AFI29" s="0"/>
+      <c r="AFJ29" s="0"/>
+      <c r="AFK29" s="0"/>
+      <c r="AFL29" s="0"/>
+      <c r="AFM29" s="0"/>
+      <c r="AFN29" s="0"/>
+      <c r="AFO29" s="0"/>
+      <c r="AFP29" s="0"/>
+      <c r="AFQ29" s="0"/>
+      <c r="AFR29" s="0"/>
+      <c r="AFS29" s="0"/>
+      <c r="AFT29" s="0"/>
+      <c r="AFU29" s="0"/>
+      <c r="AFV29" s="0"/>
+      <c r="AFW29" s="0"/>
+      <c r="AFX29" s="0"/>
+      <c r="AFY29" s="0"/>
+      <c r="AFZ29" s="0"/>
+      <c r="AGA29" s="0"/>
+      <c r="AGB29" s="0"/>
+      <c r="AGC29" s="0"/>
+      <c r="AGD29" s="0"/>
+      <c r="AGE29" s="0"/>
+      <c r="AGF29" s="0"/>
+      <c r="AGG29" s="0"/>
+      <c r="AGH29" s="0"/>
+      <c r="AGI29" s="0"/>
+      <c r="AGJ29" s="0"/>
+      <c r="AGK29" s="0"/>
+      <c r="AGL29" s="0"/>
+      <c r="AGM29" s="0"/>
+      <c r="AGN29" s="0"/>
+      <c r="AGO29" s="0"/>
+      <c r="AGP29" s="0"/>
+      <c r="AGQ29" s="0"/>
+      <c r="AGR29" s="0"/>
+      <c r="AGS29" s="0"/>
+      <c r="AGT29" s="0"/>
+      <c r="AGU29" s="0"/>
+      <c r="AGV29" s="0"/>
+      <c r="AGW29" s="0"/>
+      <c r="AGX29" s="0"/>
+      <c r="AGY29" s="0"/>
+      <c r="AGZ29" s="0"/>
+      <c r="AHA29" s="0"/>
+      <c r="AHB29" s="0"/>
+      <c r="AHC29" s="0"/>
+      <c r="AHD29" s="0"/>
+      <c r="AHE29" s="0"/>
+      <c r="AHF29" s="0"/>
+      <c r="AHG29" s="0"/>
+      <c r="AHH29" s="0"/>
+      <c r="AHI29" s="0"/>
+      <c r="AHJ29" s="0"/>
+      <c r="AHK29" s="0"/>
+      <c r="AHL29" s="0"/>
+      <c r="AHM29" s="0"/>
+      <c r="AHN29" s="0"/>
+      <c r="AHO29" s="0"/>
+      <c r="AHP29" s="0"/>
+      <c r="AHQ29" s="0"/>
+      <c r="AHR29" s="0"/>
+      <c r="AHS29" s="0"/>
+      <c r="AHT29" s="0"/>
+      <c r="AHU29" s="0"/>
+      <c r="AHV29" s="0"/>
+      <c r="AHW29" s="0"/>
+      <c r="AHX29" s="0"/>
+      <c r="AHY29" s="0"/>
+      <c r="AHZ29" s="0"/>
+      <c r="AIA29" s="0"/>
+      <c r="AIB29" s="0"/>
+      <c r="AIC29" s="0"/>
+      <c r="AID29" s="0"/>
+      <c r="AIE29" s="0"/>
+      <c r="AIF29" s="0"/>
+      <c r="AIG29" s="0"/>
+      <c r="AIH29" s="0"/>
+      <c r="AII29" s="0"/>
+      <c r="AIJ29" s="0"/>
+      <c r="AIK29" s="0"/>
+      <c r="AIL29" s="0"/>
+      <c r="AIM29" s="0"/>
+      <c r="AIN29" s="0"/>
+      <c r="AIO29" s="0"/>
+      <c r="AIP29" s="0"/>
+      <c r="AIQ29" s="0"/>
+      <c r="AIR29" s="0"/>
+      <c r="AIS29" s="0"/>
+      <c r="AIT29" s="0"/>
+      <c r="AIU29" s="0"/>
+      <c r="AIV29" s="0"/>
+      <c r="AIW29" s="0"/>
+      <c r="AIX29" s="0"/>
+      <c r="AIY29" s="0"/>
+      <c r="AIZ29" s="0"/>
+      <c r="AJA29" s="0"/>
+      <c r="AJB29" s="0"/>
+      <c r="AJC29" s="0"/>
+      <c r="AJD29" s="0"/>
+      <c r="AJE29" s="0"/>
+      <c r="AJF29" s="0"/>
+      <c r="AJG29" s="0"/>
+      <c r="AJH29" s="0"/>
+      <c r="AJI29" s="0"/>
+      <c r="AJJ29" s="0"/>
+      <c r="AJK29" s="0"/>
+      <c r="AJL29" s="0"/>
+      <c r="AJM29" s="0"/>
+      <c r="AJN29" s="0"/>
+      <c r="AJO29" s="0"/>
+      <c r="AJP29" s="0"/>
+      <c r="AJQ29" s="0"/>
+      <c r="AJR29" s="0"/>
+      <c r="AJS29" s="0"/>
+      <c r="AJT29" s="0"/>
+      <c r="AJU29" s="0"/>
+      <c r="AJV29" s="0"/>
+      <c r="AJW29" s="0"/>
+      <c r="AJX29" s="0"/>
+      <c r="AJY29" s="0"/>
+      <c r="AJZ29" s="0"/>
+      <c r="AKA29" s="0"/>
+      <c r="AKB29" s="0"/>
+      <c r="AKC29" s="0"/>
+      <c r="AKD29" s="0"/>
+      <c r="AKE29" s="0"/>
+      <c r="AKF29" s="0"/>
+      <c r="AKG29" s="0"/>
+      <c r="AKH29" s="0"/>
+      <c r="AKI29" s="0"/>
+      <c r="AKJ29" s="0"/>
+      <c r="AKK29" s="0"/>
+      <c r="AKL29" s="0"/>
+      <c r="AKM29" s="0"/>
+      <c r="AKN29" s="0"/>
+      <c r="AKO29" s="0"/>
+      <c r="AKP29" s="0"/>
+      <c r="AKQ29" s="0"/>
+      <c r="AKR29" s="0"/>
+      <c r="AKS29" s="0"/>
+      <c r="AKT29" s="0"/>
+      <c r="AKU29" s="0"/>
+      <c r="AKV29" s="0"/>
+      <c r="AKW29" s="0"/>
+      <c r="AKX29" s="0"/>
+      <c r="AKY29" s="0"/>
+      <c r="AKZ29" s="0"/>
+      <c r="ALA29" s="0"/>
+      <c r="ALB29" s="0"/>
+      <c r="ALC29" s="0"/>
+      <c r="ALD29" s="0"/>
+      <c r="ALE29" s="0"/>
+      <c r="ALF29" s="0"/>
+      <c r="ALG29" s="0"/>
+      <c r="ALH29" s="0"/>
+      <c r="ALI29" s="0"/>
+      <c r="ALJ29" s="0"/>
+      <c r="ALK29" s="0"/>
+      <c r="ALL29" s="0"/>
+      <c r="ALM29" s="0"/>
+      <c r="ALN29" s="0"/>
+      <c r="ALO29" s="0"/>
+      <c r="ALP29" s="0"/>
+      <c r="ALQ29" s="0"/>
+      <c r="ALR29" s="0"/>
+      <c r="ALS29" s="0"/>
+      <c r="ALT29" s="0"/>
+      <c r="ALU29" s="0"/>
+      <c r="ALV29" s="0"/>
+      <c r="ALW29" s="0"/>
+      <c r="ALX29" s="0"/>
+      <c r="ALY29" s="0"/>
+      <c r="ALZ29" s="0"/>
+      <c r="AMA29" s="0"/>
+      <c r="AMB29" s="0"/>
+      <c r="AMC29" s="0"/>
+      <c r="AMD29" s="0"/>
+      <c r="AME29" s="0"/>
+      <c r="AMF29" s="0"/>
+      <c r="AMG29" s="0"/>
+      <c r="AMH29" s="0"/>
+      <c r="AMI29" s="0"/>
+      <c r="AMJ29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="24" t="str">
+        <f aca="false">HYPERLINK("https://hu.pinterest.com/search/pins/?rs=ac&amp;len=2&amp;q=eg%C3%a9szs%C3%a9ges%20receptek&amp;eq=eg%C3%a9szs%C3%a9ges%RE20&amp;etslf=2839&amp;term_meta[]=eg%C3%a9szs%C3%a9ges%7cautocomplete%7c1&amp;term_meta[]=receptek%7cautocomplete%7c1","egészséges receptek")</f>
+        <v>egészséges receptek</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="23"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="23"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="23"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="23"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="23"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="23"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="23"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="23"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="23"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="23"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="23"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="23"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="23"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="23" t="n">
+        <v>7</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="A17:A28"/>
+    <mergeCell ref="B17:B28"/>
+    <mergeCell ref="A30:A41"/>
+    <mergeCell ref="B30:B41"/>
+    <mergeCell ref="A45:A58"/>
+    <mergeCell ref="B45:B58"/>
+    <mergeCell ref="A60:A70"/>
+    <mergeCell ref="B60:B70"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1799,14 +3974,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1816,14 +3991,53 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="10.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="24.94"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="4" width="8.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="5" customFormat="true" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="26" t="str">
+        <f aca="false">HYPERLINK("https://www.youtube.com/watch?v=Hp8rGPvxo2o", "nyugtalanságra, alvászavarra")</f>
+        <v>nyugtalanságra, alvászavarra</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
